--- a/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>A code expressing the type of property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.type` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.property.type` is will have a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -422,7 +422,7 @@
     <t>A value for the property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.value[x]` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+    <t>Element `SubstanceDefinition.property.value[x]` is will have a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -788,7 +788,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="115.01953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="163.73046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.property` 0..* `BackboneElement`
 *  R4: `SubstanceSpecification.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `SubstanceDefinition.property` is mapped to FHIR R4 element `SubstanceSpecification.property`.</t>
+Element `SubstanceDefinition.property` has is mapped to FHIR R4 element `SubstanceSpecification.property`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>A code expressing the type of property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.type` is will have a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.property.type` is part of an existing definition because parent element `SubstanceDefinition.property` requires a cross-version extension.
+Element `SubstanceDefinition.property.type` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +426,8 @@
     <t>A value for the property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.value[x]` is will have a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.property.value[x]` is part of an existing definition because parent element `SubstanceDefinition.property` requires a cross-version extension.
+Element `SubstanceDefinition.property.value[x]` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -432,6 +437,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -788,7 +796,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="163.73046875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="157.7421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1594,7 +1602,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1636,7 +1644,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1651,15 +1659,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1682,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1739,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1751,21 +1759,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1790,14 +1798,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1866,7 +1874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1969,7 +1977,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2074,7 +2082,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2117,7 +2125,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2159,7 +2167,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2174,15 +2182,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2205,13 +2213,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2262,7 +2270,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2274,18 +2282,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2367,7 +2375,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2382,15 +2390,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2413,13 +2421,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2470,7 +2478,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2482,10 +2490,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `SubstanceDefinition.property` 0..* `BackboneElement`
 *  R4: `SubstanceSpecification.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `SubstanceDefinition.property` has is mapped to FHIR R4 element `SubstanceSpecification.property`, but has no comparisons.</t>
+Element `SubstanceDefinition.property` is mapped to FHIR R4 element `SubstanceSpecification.property` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>A code expressing the type of property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.type` is part of an existing definition because parent element `SubstanceDefinition.property` requires a cross-version extension.
-Element `SubstanceDefinition.property.type` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.property.type` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,8 +422,7 @@
     <t>A value for the property.</t>
   </si>
   <si>
-    <t>Element `SubstanceDefinition.property.value[x]` is part of an existing definition because parent element `SubstanceDefinition.property` requires a cross-version extension.
-Element `SubstanceDefinition.property.value[x]` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
+    <t>Element `SubstanceDefinition.property.value[x]` has a context of SubstanceSpecification.property based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -437,9 +432,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceDefinition.property.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -1602,72 +1594,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1690,7 +1682,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1747,7 +1739,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1759,21 +1751,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1798,14 +1790,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1874,7 +1866,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1977,7 +1969,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2082,7 +2074,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2125,7 +2117,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2167,30 +2159,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2213,13 +2205,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2270,7 +2262,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2282,18 +2274,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2375,30 +2367,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2421,13 +2413,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2478,7 +2470,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2490,10 +2482,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
